--- a/indice.xlsx
+++ b/indice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\ceos-manual-de-usuario-iotdb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A2BF9-D4E1-429F-862B-627C645D135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B67298-B212-4111-B786-D2CA0699B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18048" yWindow="1056" windowWidth="17280" windowHeight="9072" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Concepto de datos</t>
   </si>
   <si>
-    <t>CLI</t>
-  </si>
-  <si>
     <t>Gestión de la administración</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t xml:space="preserve">     Arquitectura</t>
   </si>
   <si>
-    <t xml:space="preserve">     Guión</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Características</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t xml:space="preserve">     Configuración de ruta de almacenamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">     Obtenga archivos binarios de IoTDB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Concept </t>
   </si>
   <si>
@@ -439,6 +430,15 @@
   </si>
   <si>
     <t xml:space="preserve">     Comparación</t>
+  </si>
+  <si>
+    <t>Escenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Obtener archivos binarios de IoTDB</t>
+  </si>
+  <si>
+    <t>Interfaz de Línea de Comandos</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5285E91-C305-43EF-818C-4F90F8F6AD19}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -902,47 +902,47 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -950,31 +950,31 @@
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -982,445 +982,445 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/indice.xlsx
+++ b/indice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B67298-B212-4111-B786-D2CA0699B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D22989-3629-4600-B868-5B91D64ADF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
+    <workbookView xWindow="5760" yWindow="1056" windowWidth="17280" windowHeight="9072" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Lenguaje IoTDB-SQL</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>UDF</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>Interfaz de Línea de Comandos</t>
+  </si>
+  <si>
+    <t>API (Interfaz de Programación de Aplicaciones)</t>
   </si>
 </sst>
 </file>
@@ -873,14 +873,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5285E91-C305-43EF-818C-4F90F8F6AD19}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -894,7 +894,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -902,47 +902,47 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -950,31 +950,31 @@
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -982,66 +982,66 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -1049,15 +1049,15 @@
     </row>
     <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1065,362 +1065,362 @@
     </row>
     <row r="23" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/indice.xlsx
+++ b/indice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D22989-3629-4600-B868-5B91D64ADF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F82039-32E3-4813-B5A2-DBF24D774154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1056" windowWidth="17280" windowHeight="9072" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
+    <workbookView xWindow="3084" yWindow="1284" windowWidth="17280" windowHeight="9072" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +483,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +506,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -529,14 +541,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,12 +566,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -873,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5285E91-C305-43EF-818C-4F90F8F6AD19}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,42 +1105,42 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1136,10 +1153,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>68</v>
       </c>
     </row>

--- a/indice.xlsx
+++ b/indice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\trabajo\ceos-guia-de-usuario-de-iotdb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\Trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F82039-32E3-4813-B5A2-DBF24D774154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03D7C5-DA20-428A-A091-E923CCDD8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="1284" windowWidth="17280" windowHeight="9072" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>IoTDB User Guide (V0.12.x)</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>MQTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Ahorro</t>
   </si>
   <si>
     <t xml:space="preserve">     MQTT</t>
@@ -549,7 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,6 +564,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5285E91-C305-43EF-818C-4F90F8F6AD19}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1145,128 +1145,128 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
@@ -1274,15 +1274,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>11</v>
@@ -1290,79 +1290,79 @@
     </row>
     <row r="49" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -1370,15 +1370,15 @@
     </row>
     <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -1386,15 +1386,15 @@
     </row>
     <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
@@ -1402,31 +1402,31 @@
     </row>
     <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="67" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/indice.xlsx
+++ b/indice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\Trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03D7C5-DA20-428A-A091-E923CCDD8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C322830-6E4C-4D87-B85A-3D775F0C9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
@@ -551,9 +551,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +566,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -901,123 +899,123 @@
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M15" t="s">
@@ -1025,274 +1023,274 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1361,10 +1359,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1377,58 +1375,58 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/indice.xlsx
+++ b/indice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Zabala\Documents\Trabajo\ceos-guia-de-usuario-de-iotdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C322830-6E4C-4D87-B85A-3D775F0C9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF2A34-3D16-4A1E-976D-6F325E66A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1012736E-6110-4E21-90D1-26A72DE8B67C}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Integración de ecosistemas</t>
   </si>
   <si>
-    <t>Configuración de clúster</t>
-  </si>
-  <si>
     <t>Preguntas más frecuentes</t>
   </si>
   <si>
@@ -436,13 +433,16 @@
   </si>
   <si>
     <t>API (Interfaz de Programación de Aplicaciones)</t>
+  </si>
+  <si>
+    <t>Configuración de clúster (Experimental)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,15 +480,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,11 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,15 +526,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
@@ -560,20 +547,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -888,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5285E91-C305-43EF-818C-4F90F8F6AD19}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="A1:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,16 +880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -917,47 +897,47 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -965,31 +945,31 @@
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -997,66 +977,66 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -1064,15 +1044,15 @@
     </row>
     <row r="21" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
@@ -1080,71 +1060,71 @@
     </row>
     <row r="23" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -1152,15 +1132,15 @@
     </row>
     <row r="32" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>8</v>
@@ -1168,23 +1148,23 @@
     </row>
     <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>9</v>
@@ -1192,79 +1172,79 @@
     </row>
     <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
@@ -1272,15 +1252,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
@@ -1288,154 +1268,154 @@
     </row>
     <row r="49" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="3" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="B63" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
